--- a/fisher_xun指定位置.xlsx
+++ b/fisher_xun指定位置.xlsx
@@ -7,7 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="0-36" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="18-36-0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="18-36-1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="18-36-2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="18-36-3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -379,14 +382,16 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.048677837722922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -394,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.168290680309207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -402,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.004250315851003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -410,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.874564892324077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -418,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.703362702919177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -426,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.493871128151135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -434,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.04544370541214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -442,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.942461398290499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -450,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.847459166015426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -458,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.006720668341764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -466,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.123403106584124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -474,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.077383364870659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -482,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.218976948062814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -490,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.17024981559954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -498,7 +503,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.11632850779009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -506,7 +511,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.170204996695194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -514,23 +519,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.125090228851958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>9.269794901693537</v>
-      </c>
+      <c r="B20" t="s"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.279712367308491</v>
+        <v>1.643369905232692</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -538,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.287219255901769</v>
+        <v>1.881064111132745</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -546,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.264542013167631</v>
+        <v>2.964266121122144</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -554,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.234891376912788</v>
+        <v>2.753401908582327</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -562,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.199148443036224</v>
+        <v>2.640049986984304</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -570,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.250270318494133</v>
+        <v>2.774727773315842</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -578,7 +581,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.079365129299324</v>
+        <v>2.950994903902181</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -586,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.027704647858723</v>
+        <v>2.703930963410473</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -594,7 +597,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.988530418458945</v>
+        <v>2.393845042594654</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -602,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.094187273774839</v>
+        <v>2.582130316245109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -610,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.212166270464801</v>
+        <v>2.795036269621409</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -618,7 +621,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.270117663606261</v>
+        <v>2.78183939033773</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -626,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.078500542944697</v>
+        <v>2.915215112119407</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -634,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.595141591895645</v>
+        <v>2.966484139333079</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -642,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.848261534287779</v>
+        <v>3.079736405498005</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -650,7 +653,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.056501156819614</v>
+        <v>3.183592176302886</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -658,7 +661,937 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.166698368628179</v>
+        <v>3.296242319445994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.575672474776434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.669002398900677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.572741966799627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.436760336844817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.477223407948003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.565232414577442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.283227915263854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.080792327443348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.902900468166679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.997277652696076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.086656011208005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.121321398214456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.098844393468063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.025049288760834</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.095983913467901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.154916484175596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.207013479875381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.041240580054889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.274129007574825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.48411078658885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.270027828942872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.303212345854414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.435386958743727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.062689978994209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.772192938303058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.457459655796833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.607041332941464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.767112705226273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.798889845902467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.877706508672891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.865970239801153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.966009806005735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.052154292511973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.135390624716544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.741415313685757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.314165537685625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.205566180276522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.642151933247156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.36579792050977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.722656547361488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10.44851907864024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.04117555854878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.708720089268297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.804771432182477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.987678781777618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9.931509042549829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9.803776045287909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9.240250516347631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9.562502052355438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9.736994108706732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9.812273824378677</v>
       </c>
     </row>
   </sheetData>

--- a/fisher_xun指定位置.xlsx
+++ b/fisher_xun指定位置.xlsx
@@ -7,10 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="18-36-0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="18-36-1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="18-36-2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="18-36-3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0-36-0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0-36-1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0-36-2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0-36-3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -382,16 +382,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.868411780346994</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -399,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.73462837669291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -407,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.608175544903661</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -415,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.553541404579102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -423,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.425079770173236</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -431,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9.333265613052861</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -439,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9.31707250865154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -447,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.192811800721463</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -455,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.145674915103646</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -463,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9.18704728336003</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -471,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.802271979418705</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -479,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.691481158160698</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -487,7 +485,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.619234873270091</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -495,7 +493,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.363054026415282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -503,7 +501,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.189269073854916</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -511,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>8.477637268505378</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -519,21 +517,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7.326047566459048</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
+      <c r="B20" t="n">
+        <v>6.520267964341594</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.643369905232692</v>
+        <v>6.519530591664822</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.881064111132745</v>
+        <v>6.837673889047828</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -549,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.964266121122144</v>
+        <v>7.171834598979332</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -557,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.753401908582327</v>
+        <v>7.499360475809272</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.640049986984304</v>
+        <v>7.698852556565493</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -573,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.774727773315842</v>
+        <v>7.798775184204006</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -581,7 +581,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.950994903902181</v>
+        <v>7.950874371043436</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -589,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.703930963410473</v>
+        <v>7.488154099711291</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -597,7 +597,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.393845042594654</v>
+        <v>7.411544568360918</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -605,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.582130316245109</v>
+        <v>7.647133864619568</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.795036269621409</v>
+        <v>7.937950709679477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -621,7 +621,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.78183939033773</v>
+        <v>8.26646603277287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.915215112119407</v>
+        <v>8.590259271819566</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -637,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.966484139333079</v>
+        <v>8.889047099533416</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -645,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.079736405498005</v>
+        <v>9.137535725044019</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -653,7 +653,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.183592176302886</v>
+        <v>9.435377265721309</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.296242319445994</v>
+        <v>9.714267046268704</v>
       </c>
     </row>
   </sheetData>
@@ -692,16 +692,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8.171339004564125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -709,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.049055781879552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -717,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.982871239425934</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7.879800150746949</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -733,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.756426714146643</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -741,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7.635377837953064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -749,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7.532888925031221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -757,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.57574333828559</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -765,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.491907467114062</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -773,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.461565856180636</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -781,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.175868955570683</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -789,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.181778772284266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -797,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.140679480505328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -805,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>8.13294132656225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -813,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.095338983361597</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -821,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7.459281782620661</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -829,21 +827,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6.495439869520776</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
+      <c r="B20" t="n">
+        <v>6.365106830327364</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.575672474776434</v>
+        <v>6.451283932361483</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -851,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.669002398900677</v>
+        <v>6.650826344741989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.572741966799627</v>
+        <v>6.846997788011806</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.436760336844817</v>
+        <v>7.036483885906547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -875,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.477223407948003</v>
+        <v>7.158314399321048</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.565232414577442</v>
+        <v>7.210831405897885</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -891,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.283227915263854</v>
+        <v>7.324684015600133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.080792327443348</v>
+        <v>6.651034216396748</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -907,7 +907,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.902900468166679</v>
+        <v>6.629702044158819</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -915,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.997277652696076</v>
+        <v>6.840603505469025</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.086656011208005</v>
+        <v>7.051980274645911</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -931,7 +931,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.121321398214456</v>
+        <v>7.261586340549902</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.098844393468063</v>
+        <v>7.463005929638819</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -947,7 +947,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.025049288760834</v>
+        <v>7.615582089241284</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.095983913467901</v>
+        <v>7.719939272153804</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.154916484175596</v>
+        <v>7.907968424148602</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -971,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.207013479875381</v>
+        <v>8.100515460278432</v>
       </c>
     </row>
   </sheetData>
@@ -1002,16 +1002,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.400319759803757</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1019,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.264670428010506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1027,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.211224005244489</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1035,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.119329851433855</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1043,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.991942374149959</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1051,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.874556873287064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1059,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8.803596655424053</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1067,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.687512071509218</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1075,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.604426930229781</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1083,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8.615449794595779</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1091,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.240464357163297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1099,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.269477910625463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1107,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.199640268561101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1115,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.241434854117973</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1123,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.154634307259331</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1131,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>8.616153977647006</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1139,21 +1137,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7.604572434029051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
+      <c r="B20" t="n">
+        <v>7.118816927031727</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.041240580054889</v>
+        <v>7.16608289690089</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.274129007574825</v>
+        <v>7.41786642674025</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.48411078658885</v>
+        <v>7.678760842500275</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.270027828942872</v>
+        <v>7.931058355857497</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.303212345854414</v>
+        <v>8.070631603491771</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.435386958743727</v>
+        <v>8.083290087639728</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.062689978994209</v>
+        <v>8.206277703556779</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.772192938303058</v>
+        <v>7.382400574787668</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.457459655796833</v>
+        <v>7.243371424080757</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.607041332941464</v>
+        <v>7.495522085929858</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.767112705226273</v>
+        <v>7.766896219106776</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.798889845902467</v>
+        <v>8.054956376335996</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.877706508672891</v>
+        <v>8.335297304570545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.865970239801153</v>
+        <v>8.587627917676571</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.966009806005735</v>
+        <v>8.774763266859614</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.052154292511973</v>
+        <v>9.030254820070311</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.135390624716544</v>
+        <v>9.278791034071151</v>
       </c>
     </row>
   </sheetData>
@@ -1312,16 +1312,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9.273733854310693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1329,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.005159786507782</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1337,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9.218506736098734</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1345,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.026531609838877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1353,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.900296237990796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1361,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.723565140353481</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1369,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8.489153349685134</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1377,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.121742645135134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1385,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.00749045066943</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1393,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>8.97917106745844</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1401,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>9.152683522223114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1409,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.285212286177142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1417,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.224069542796363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1425,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.394890843165209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1433,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.345308482158424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1441,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>9.531445548244191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1449,21 +1447,23 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9.50917258380926</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="s"/>
+      <c r="B20" t="n">
+        <v>9.496535829118249</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.741415313685757</v>
+        <v>9.476478529882154</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.314165537685625</v>
+        <v>9.480717860081565</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.205566180276522</v>
+        <v>9.484899497067474</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.642151933247156</v>
+        <v>9.469823242401022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.36579792050977</v>
+        <v>9.461741104350395</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.722656547361488</v>
+        <v>9.474399811811784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.44851907864024</v>
+        <v>9.436097548813272</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.04117555854878</v>
+        <v>9.274400079631116</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.708720089268297</v>
+        <v>9.202772993455911</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.804771432182477</v>
+        <v>9.32937658883295</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.987678781777618</v>
+        <v>9.411351618766423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.931509042549829</v>
+        <v>9.496448176992871</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.803776045287909</v>
+        <v>9.532881075799363</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.240250516347631</v>
+        <v>9.441044323197856</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.562502052355438</v>
+        <v>9.070189139138721</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.736994108706732</v>
+        <v>9.035501330206419</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.812273824378677</v>
+        <v>9.26601349730521</v>
       </c>
     </row>
   </sheetData>
